--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/46_Kastamonu_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/46_Kastamonu_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C093F8-F6FB-44B5-8A2D-67037327132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB95FAE7-89C5-4BE1-8529-77D163F5BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{08C01C97-E9BF-4B0A-920A-7D3F84B9F09D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{4A9BD3D7-1C1F-40BC-9DE8-12C1B2C34BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BA7C0CB8-F6F3-4A5F-A44C-41B221C807A3}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D7B7B309-30E9-4AD4-80EF-91B058DBBEDC}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{C21BBBB7-0C76-401B-8BF7-751E1D8C85B1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E225DFA7-E712-4D5D-8CD2-308CB414C2FC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{BF10DD44-E6E2-486F-A223-D5336EAF381C}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{D9F26C36-C0DB-4A87-8B7B-42078D44FD91}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{2C5E38F4-80ED-40EA-AD7E-3903D44F5949}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A952E1D0-2CFF-4D6C-B8FE-2FDBFBE499C9}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BEE1528E-EE01-430A-BC87-22ACCF490CA4}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{2F29F6E7-E448-42DD-80D3-0CE65058427D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{AD3C0DB6-1CD9-440A-8D0D-50352E340148}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{1E9A3261-35E0-47BD-BAFF-EAB01241E176}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{142F9E30-2769-410B-9161-547400693A02}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{BD8F396E-578C-401C-9708-5DDCF358CAAA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB29B3D-6220-4DED-A62F-EBF5AD113784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A45CB9D-82A5-47C7-91BD-FF557C3B4119}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2557,7 +2557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDF1279-28FC-4489-AD7E-A37D37EB91E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895781B-3E26-41A6-9232-949BE753769A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3772,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68111354-F794-4882-89AB-B8E1E5BE86E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58D5659-54B0-4A13-9FFD-807D46E6CF3A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4977,7 +4977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CEFAB1-DE5F-4254-8B3B-685629929BAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE82C30-060B-4179-B6B4-A09514634643}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6178,7 +6178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140CCDE4-E748-4C8C-A2D6-FAA3D7D472DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B72BD0-87FE-40AF-8CE6-9E52E14740E4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7441,7 +7441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4F3C61-C13F-4B14-B6F9-976B1A0F9623}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BAC985-9C10-4137-AB82-34E35D714BE4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8704,7 +8704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5133150B-67C8-4C3E-B223-9EA448D4305F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404319A9-FCFB-4218-9720-DB0A1B2ED4F7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9967,7 +9967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3055903E-5639-4C7C-9D3A-888A163DD850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03FDD51-6D6F-43E9-B349-F83F5B788C5A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11230,7 +11230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5520C8-0FCE-45D7-B0A2-A2C893429D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9761A9-4068-4639-9F95-FB33DED20684}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12487,7 +12487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D875214E-E236-4F92-90CB-E7E4AE1142FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DA2061-632A-4CCD-AA2C-77E66AD33089}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13732,7 +13732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A5C6AE-AF46-40EC-B527-9B0077E9AE0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B1BB5A-943A-4D1A-B5BD-635F0CE5F693}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14977,7 +14977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F498E743-31E6-443A-852B-5F6DAEE97211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F3C4C2-73CB-4051-80D3-03806D925B35}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
